--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_Ctymito.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/2.XulyBH/XLBH2208_Ctymito.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -228,9 +228,6 @@
     <t>NQ899</t>
   </si>
   <si>
-    <t>RFID</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -241,6 +238,21 @@
   </si>
   <si>
     <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>NQ.2.00.00002.180728</t>
+  </si>
+  <si>
+    <t>SIM+RFID+ANTEN</t>
   </si>
 </sst>
 </file>
@@ -965,7 +977,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1190,28 +1202,42 @@
         <v>863586032853396</v>
       </c>
       <c r="F6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>65</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>66</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="N6" s="1">
+        <v>385000</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
       <c r="U6" s="59" t="s">
@@ -1658,7 +1684,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1871,7 +1897,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -2159,7 +2185,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
